--- a/Docs/UpdateScript/20240708_會議活動修正清單.xlsx
+++ b/Docs/UpdateScript/20240708_會議活動修正清單.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA1AB574-A28C-4F2D-8C1F-4E713356EE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91354C49-B7FB-4FD4-A7B8-D2774C2EC553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9FD85ADB-64AB-41F6-8A11-AEBF77B7E0A5}"/>
   </bookViews>
@@ -812,17 +812,185 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>無</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>計畫審查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>評選</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>進度報告</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>期中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>末</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>分包評選等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>定期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>臨時工作會議</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>審</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Microsoft JhengHei"/>
         <family val="2"/>
       </rPr>
-      <t>計畫審查</t>
+      <t>查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>審議</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>會議</t>
     </r>
     <r>
       <rPr>
@@ -838,7 +1006,27 @@
         <rFont val="Microsoft JhengHei"/>
         <family val="2"/>
       </rPr>
-      <t>評選</t>
+      <t>現勘、評鑑、綠色工廠、工程督導、技審、期刊、手冊、獎項、題庫、石油基金退費等</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>輔導</t>
     </r>
     <r>
       <rPr>
@@ -851,10 +1039,103 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>查核</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Microsoft JhengHei"/>
         <family val="2"/>
       </rPr>
-      <t>進度報告</t>
+      <t>訪談</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>活動辦理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>參訪、記者會、頒獎等各類活動</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>計畫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>工作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>分包</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>專案諮詢</t>
     </r>
     <r>
       <rPr>
@@ -867,11 +1148,27 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>學習會議</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="微軟正黑體"/>
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>期中</t>
+      <t>專諮</t>
     </r>
     <r>
       <rPr>
@@ -884,10 +1181,44 @@
     <r>
       <rPr>
         <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>研商</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>講習</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Microsoft JhengHei"/>
         <family val="2"/>
       </rPr>
-      <t>期</t>
+      <t>說明/</t>
     </r>
     <r>
       <rPr>
@@ -896,15 +1227,7 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>末</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
+      <t>研討會</t>
     </r>
     <r>
       <rPr>
@@ -912,7 +1235,7 @@
         <rFont val="Microsoft JhengHei"/>
         <family val="2"/>
       </rPr>
-      <t>分包評選等</t>
+      <t>等</t>
     </r>
     <r>
       <rPr>
@@ -925,330 +1248,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>定期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>臨時工作會議</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>審</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>查</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>審議</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>會議</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>現勘、評鑑、綠色工廠、工程督導、技審、期刊、手冊、獎項、題庫、石油基金退費等</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>輔導</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>查核</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>訪談</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>活動辦理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>參訪、記者會、頒獎等各類活動</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>計畫</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>工作</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>分包</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>專案諮詢</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>學習會議</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>專諮</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>研商</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>講習</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>說明/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>研討會</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Microsoft JhengHei"/>
-        <family val="2"/>
-      </rPr>
-      <t>等</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
+    <t>業主制定委員名冊</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1871,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0D20C1-CF1A-418A-B2D6-F34C403BAEAA}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2492,7 +2492,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2545,7 +2545,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L2" s="19" t="s">
         <v>83</v>
@@ -2571,10 +2571,10 @@
         <v>2</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="34.5">
@@ -2597,7 +2597,7 @@
         <v>3</v>
       </c>
       <c r="K4" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L4" s="22" t="s">
         <v>85</v>
@@ -2623,7 +2623,7 @@
         <v>4</v>
       </c>
       <c r="K5" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L5" s="22" t="s">
         <v>86</v>
@@ -2649,10 +2649,10 @@
         <v>5</v>
       </c>
       <c r="K6" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="34.5">
@@ -2675,7 +2675,7 @@
         <v>6</v>
       </c>
       <c r="K7" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L7" s="22" t="s">
         <v>87</v>
@@ -2727,10 +2727,10 @@
         <v>8</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M9" s="16" t="s">
         <v>88</v>
@@ -2810,6 +2810,18 @@
       <c r="H12" s="13">
         <v>3</v>
       </c>
+      <c r="J12">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>96</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" s="17" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="17.25">
       <c r="A13">
@@ -2909,8 +2921,8 @@
       <c r="D18" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="14" t="s">
-        <v>89</v>
+      <c r="H18" s="14">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="17.25">
@@ -2926,8 +2938,8 @@
       <c r="D19" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="15" t="s">
-        <v>89</v>
+      <c r="H19" s="15">
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="17.25">
@@ -3062,8 +3074,8 @@
       <c r="D27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H27" s="14" t="s">
-        <v>89</v>
+      <c r="H27" s="14">
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="17.25">

--- a/Docs/UpdateScript/20240708_會議活動修正清單.xlsx
+++ b/Docs/UpdateScript/20240708_會議活動修正清單.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\Esdms\Docs\UpdateScript\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91354C49-B7FB-4FD4-A7B8-D2774C2EC553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E977FEE8-AF5B-4687-AB58-4469A90CD68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{9FD85ADB-64AB-41F6-8A11-AEBF77B7E0A5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9FD85ADB-64AB-41F6-8A11-AEBF77B7E0A5}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
+    <sheet name="新會議代碼" sheetId="4" r:id="rId3"/>
+    <sheet name="工作表4" sheetId="5" r:id="rId4"/>
+    <sheet name="工作表3" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$E$33</definedName>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="167">
   <si>
     <t>會內</t>
   </si>
@@ -1250,13 +1252,239 @@
   <si>
     <t>業主制定委員名冊</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dcode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bdate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bfno</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bname</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Udate</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ufno</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Uname</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsCount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F01885</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>許瓊中</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>F01886</t>
+  </si>
+  <si>
+    <t>F01887</t>
+  </si>
+  <si>
+    <t>F01888</t>
+  </si>
+  <si>
+    <t>F01889</t>
+  </si>
+  <si>
+    <t>F01890</t>
+  </si>
+  <si>
+    <t>F01891</t>
+  </si>
+  <si>
+    <t>F01892</t>
+  </si>
+  <si>
+    <t>F01893</t>
+  </si>
+  <si>
+    <t>F01894</t>
+  </si>
+  <si>
+    <t>2024/7/10 02:00:00</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024/7/10 02:00:01</t>
+  </si>
+  <si>
+    <t>2024/7/10 02:00:02</t>
+  </si>
+  <si>
+    <t>2024/7/10 02:00:03</t>
+  </si>
+  <si>
+    <t>2024/7/10 02:00:04</t>
+  </si>
+  <si>
+    <t>2024/7/10 02:00:05</t>
+  </si>
+  <si>
+    <t>2024/7/10 02:00:06</t>
+  </si>
+  <si>
+    <t>2024/7/10 02:00:07</t>
+  </si>
+  <si>
+    <t>2024/7/10 02:00:08</t>
+  </si>
+  <si>
+    <t>2024/7/10 02:00:09</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FullName</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>DCode</t>
+  </si>
+  <si>
+    <t>BDate</t>
+  </si>
+  <si>
+    <t>BFno</t>
+  </si>
+  <si>
+    <t>BName</t>
+  </si>
+  <si>
+    <t>UDate</t>
+  </si>
+  <si>
+    <t>UFno</t>
+  </si>
+  <si>
+    <t>UName</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>IsCount</t>
+  </si>
+  <si>
+    <t>MapNewId</t>
+  </si>
+  <si>
+    <t>環境部</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>J00007</t>
+  </si>
+  <si>
+    <t>林正祥</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>能源署</t>
+  </si>
+  <si>
+    <t>B0</t>
+  </si>
+  <si>
+    <t>產發署</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>臺北市政府環境保護局</t>
+  </si>
+  <si>
+    <t>E01</t>
+  </si>
+  <si>
+    <t>F01885</t>
+  </si>
+  <si>
+    <t>許瓊中</t>
+  </si>
+  <si>
+    <t>臺南市政府環境保護局</t>
+  </si>
+  <si>
+    <t>E03</t>
+  </si>
+  <si>
+    <t>臺北市政府工務局</t>
+  </si>
+  <si>
+    <t>E02</t>
+  </si>
+  <si>
+    <t>教育部</t>
+  </si>
+  <si>
+    <t>E04</t>
+  </si>
+  <si>
+    <t>行政院農業委員會</t>
+  </si>
+  <si>
+    <t>E05</t>
+  </si>
+  <si>
+    <t>FullName</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1397,8 +1625,14 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1414,6 +1648,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1447,7 +1693,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1534,6 +1780,69 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1872,18 +2181,18 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="2" max="2" width="44.5" customWidth="1"/>
-    <col min="3" max="3" width="6.625" customWidth="1"/>
+    <col min="2" max="2" width="44.453125" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
-    <col min="5" max="5" width="10.25" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17.25">
+    <row r="1" spans="1:6" ht="17.5">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1903,7 +2212,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="17.25">
+    <row r="2" spans="1:6" ht="17.5">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1921,7 +2230,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="34.5">
+    <row r="3" spans="1:6" ht="35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1939,7 +2248,7 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="17.25">
+    <row r="4" spans="1:6" ht="17.5">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -1957,7 +2266,7 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="34.5">
+    <row r="5" spans="1:6" ht="35">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -1975,7 +2284,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="17.25">
+    <row r="6" spans="1:6" ht="17.5">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -1993,7 +2302,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="17.25">
+    <row r="7" spans="1:6" ht="17.5">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -2011,7 +2320,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="17.25">
+    <row r="8" spans="1:6" ht="35">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -2029,7 +2338,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="17.25">
+    <row r="9" spans="1:6" ht="17.5">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -2047,7 +2356,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="17.25">
+    <row r="10" spans="1:6" ht="17.5">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -2065,7 +2374,7 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="17.25">
+    <row r="11" spans="1:6" ht="17.5">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -2083,7 +2392,7 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="17.25">
+    <row r="12" spans="1:6" ht="35">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
@@ -2101,7 +2410,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="34.5">
+    <row r="13" spans="1:6" ht="35">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -2119,7 +2428,7 @@
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="17.25">
+    <row r="14" spans="1:6" ht="17.5">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -2137,7 +2446,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="17.25">
+    <row r="15" spans="1:6" ht="17.5">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -2155,7 +2464,7 @@
       </c>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="17.25">
+    <row r="16" spans="1:6" ht="17.5">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -2175,7 +2484,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.25">
+    <row r="17" spans="1:6" ht="17.5">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
@@ -2195,7 +2504,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.25">
+    <row r="18" spans="1:6" ht="17.5">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -2211,7 +2520,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.25">
+    <row r="19" spans="1:6" ht="17.5">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -2227,7 +2536,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.25">
+    <row r="20" spans="1:6" ht="17.5">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -2245,7 +2554,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="34.5">
+    <row r="21" spans="1:6" ht="35">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
@@ -2263,7 +2572,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="17.25">
+    <row r="22" spans="1:6" ht="17.5">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
@@ -2281,7 +2590,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="17.25">
+    <row r="23" spans="1:6" ht="17.5">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -2301,7 +2610,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="34.5">
+    <row r="24" spans="1:6" ht="35">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -2319,7 +2628,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="34.5">
+    <row r="25" spans="1:6" ht="35">
       <c r="A25" s="3" t="s">
         <v>0</v>
       </c>
@@ -2337,7 +2646,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="34.5">
+    <row r="26" spans="1:6" ht="35">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
@@ -2355,7 +2664,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="17.25">
+    <row r="27" spans="1:6" ht="17.5">
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
@@ -2371,7 +2680,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="17.25">
+    <row r="28" spans="1:6" ht="17.5">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
@@ -2389,7 +2698,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="34.5">
+    <row r="29" spans="1:6" ht="35">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -2407,7 +2716,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="34.5">
+    <row r="30" spans="1:6" ht="35">
       <c r="A30" s="3" t="s">
         <v>0</v>
       </c>
@@ -2425,7 +2734,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="17.25">
+    <row r="31" spans="1:6" ht="17.5">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
@@ -2443,7 +2752,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="34.5">
+    <row r="32" spans="1:6" ht="35">
       <c r="A32" s="3" t="s">
         <v>0</v>
       </c>
@@ -2461,7 +2770,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" ht="34.5">
+    <row r="33" spans="1:6" ht="35">
       <c r="A33" s="3" t="s">
         <v>0</v>
       </c>
@@ -2489,23 +2798,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF076BF8-D152-4838-857D-44919F4B8D8C}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.79998168889431442"/>
+  </sheetPr>
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="47.5" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="47.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" customWidth="1"/>
     <col min="8" max="8" width="9" style="13"/>
-    <col min="10" max="10" width="7.5" customWidth="1"/>
-    <col min="11" max="11" width="27.25" customWidth="1"/>
-    <col min="12" max="12" width="18.25" style="13" customWidth="1"/>
+    <col min="10" max="10" width="7.453125" customWidth="1"/>
+    <col min="11" max="11" width="27.26953125" customWidth="1"/>
+    <col min="12" max="12" width="18.26953125" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17.25">
+    <row r="1" spans="1:13" ht="17.5">
       <c r="A1" t="s">
         <v>81</v>
       </c>
@@ -2577,7 +2889,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="34.5">
+    <row r="4" spans="1:13" ht="35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2629,14 +2941,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="17.25">
+    <row r="6" spans="1:13" ht="17.5">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="47" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
@@ -2655,7 +2967,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="34.5">
+    <row r="7" spans="1:13" ht="35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2794,7 +3106,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="17.25">
+    <row r="12" spans="1:13" ht="17.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2823,14 +3135,14 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="17.25">
+    <row r="13" spans="1:13" ht="17.5">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="47" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -2840,7 +3152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="17.25">
+    <row r="14" spans="1:13" ht="17.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2857,7 +3169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="17.25">
+    <row r="15" spans="1:13" ht="17.5">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2874,14 +3186,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="17.25">
+    <row r="16" spans="1:13" ht="17.5">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="48" t="s">
         <v>74</v>
       </c>
       <c r="D16" s="3" t="s">
@@ -2891,7 +3203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17.25">
+    <row r="17" spans="1:8" ht="17.5">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2908,7 +3220,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17.25">
+    <row r="18" spans="1:8" ht="17.5">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2925,7 +3237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17.25">
+    <row r="19" spans="1:8" ht="17.5">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2942,7 +3254,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17.25">
+    <row r="20" spans="1:8" ht="17.5">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2959,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17.25">
+    <row r="21" spans="1:8" ht="17.5">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2976,14 +3288,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17.25">
+    <row r="22" spans="1:8" ht="17.5">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="47" t="s">
         <v>41</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -2993,7 +3305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17.25">
+    <row r="23" spans="1:8" ht="17.5">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3010,7 +3322,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17.25">
+    <row r="24" spans="1:8" ht="17.5">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3027,7 +3339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17.25">
+    <row r="25" spans="1:8" ht="17.5">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3044,7 +3356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17.25">
+    <row r="26" spans="1:8" ht="17.5">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3061,7 +3373,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17.25">
+    <row r="27" spans="1:8" ht="17.5">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3078,7 +3390,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17.25">
+    <row r="28" spans="1:8" ht="17.5">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3095,7 +3407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17.25">
+    <row r="29" spans="1:8" ht="17.5">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3112,7 +3424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17.25">
+    <row r="30" spans="1:8" ht="17.5">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3129,7 +3441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17.25">
+    <row r="31" spans="1:8" ht="17.5">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3146,7 +3458,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17.25">
+    <row r="32" spans="1:8" ht="17.5">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3163,7 +3475,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17.25">
+    <row r="33" spans="1:8" ht="17.5">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3187,160 +3499,1115 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CBFA0-2BCB-49C7-BFD3-ECEF5E0EB3C1}">
-  <dimension ref="A1:D11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B60CDC42-CAF5-4C8D-8566-19A9F5EE34CE}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="1" max="2" width="5.90625" customWidth="1"/>
+    <col min="3" max="3" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="56.453125" customWidth="1"/>
+    <col min="5" max="13" width="20.453125" customWidth="1"/>
+    <col min="14" max="14" width="7.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25">
-      <c r="A1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25">
+    <row r="1" spans="1:14" ht="21" customHeight="1">
+      <c r="A1" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="21" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" ht="17.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+    </row>
+    <row r="3" spans="1:14" ht="21" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="17.25">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+    </row>
+    <row r="4" spans="1:14" ht="21" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="17.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+    </row>
+    <row r="5" spans="1:14" ht="21" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" ht="17.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+    </row>
+    <row r="6" spans="1:14" ht="21" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+    </row>
+    <row r="7" spans="1:14" ht="21" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17.25">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+    </row>
+    <row r="8" spans="1:14" ht="21" customHeight="1">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="34.5">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+    </row>
+    <row r="9" spans="1:14" ht="21" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" ht="17.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="21" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" ht="17.25">
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="21" customHeight="1">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="21" customHeight="1">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="21" customHeight="1">
+      <c r="A18" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G18" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" t="s">
+        <v>137</v>
+      </c>
+      <c r="I18" t="s">
+        <v>138</v>
+      </c>
+      <c r="J18" t="s">
+        <v>139</v>
+      </c>
+      <c r="K18" t="s">
+        <v>140</v>
+      </c>
+      <c r="L18" t="s">
+        <v>141</v>
+      </c>
+      <c r="M18" t="s">
+        <v>142</v>
+      </c>
+      <c r="N18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="21" customHeight="1">
+      <c r="A19">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="49">
+        <v>45309.412157604165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>146</v>
+      </c>
+      <c r="H19" t="s">
+        <v>147</v>
+      </c>
+      <c r="I19" s="49">
+        <v>45385.792830671293</v>
+      </c>
+      <c r="J19" t="s">
+        <v>146</v>
+      </c>
+      <c r="K19" t="s">
+        <v>147</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>148</v>
+      </c>
+      <c r="N19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="21" customHeight="1">
+      <c r="A20">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="49">
+        <v>45309.412985567127</v>
+      </c>
+      <c r="G20" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" t="s">
+        <v>147</v>
+      </c>
+      <c r="I20" s="49">
+        <v>45385.792916817132</v>
+      </c>
+      <c r="J20" t="s">
+        <v>146</v>
+      </c>
+      <c r="K20" t="s">
+        <v>147</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20" t="s">
+        <v>148</v>
+      </c>
+      <c r="N20" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="21" customHeight="1">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E21" t="s">
+        <v>153</v>
+      </c>
+      <c r="F21" s="49">
+        <v>45309.413142361111</v>
+      </c>
+      <c r="G21" t="s">
+        <v>146</v>
+      </c>
+      <c r="H21" t="s">
+        <v>147</v>
+      </c>
+      <c r="I21" s="49">
+        <v>45385.792995949072</v>
+      </c>
+      <c r="J21" t="s">
+        <v>146</v>
+      </c>
+      <c r="K21" t="s">
+        <v>147</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21" t="s">
+        <v>148</v>
+      </c>
+      <c r="N21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="21" customHeight="1">
+      <c r="A22">
+        <v>39</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" t="s">
+        <v>155</v>
+      </c>
+      <c r="F22" s="49">
+        <v>45443.408456365738</v>
+      </c>
+      <c r="G22" t="s">
+        <v>156</v>
+      </c>
+      <c r="H22" t="s">
+        <v>157</v>
+      </c>
+      <c r="I22" t="s">
+        <v>149</v>
+      </c>
+      <c r="J22" t="s">
+        <v>149</v>
+      </c>
+      <c r="K22" t="s">
+        <v>149</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>148</v>
+      </c>
+      <c r="N22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="21" customHeight="1">
+      <c r="A23">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="49">
+        <v>45443.421288043981</v>
+      </c>
+      <c r="G23" t="s">
+        <v>156</v>
+      </c>
+      <c r="H23" t="s">
+        <v>157</v>
+      </c>
+      <c r="I23" s="49">
+        <v>45443.457160300924</v>
+      </c>
+      <c r="J23" t="s">
+        <v>156</v>
+      </c>
+      <c r="K23" t="s">
+        <v>157</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>148</v>
+      </c>
+      <c r="N23" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="21" customHeight="1">
+      <c r="A24">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>160</v>
+      </c>
+      <c r="E24" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="49">
+        <v>45443.457898113425</v>
+      </c>
+      <c r="G24" t="s">
+        <v>156</v>
+      </c>
+      <c r="H24" t="s">
+        <v>157</v>
+      </c>
+      <c r="I24" s="49">
+        <v>45443.45825729167</v>
+      </c>
+      <c r="J24" t="s">
+        <v>156</v>
+      </c>
+      <c r="K24" t="s">
+        <v>157</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>148</v>
+      </c>
+      <c r="N24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="21" customHeight="1">
+      <c r="A25">
+        <v>42</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="49">
+        <v>45443.477736261571</v>
+      </c>
+      <c r="G25" t="s">
+        <v>156</v>
+      </c>
+      <c r="H25" t="s">
+        <v>157</v>
+      </c>
+      <c r="I25" t="s">
+        <v>149</v>
+      </c>
+      <c r="J25" t="s">
+        <v>149</v>
+      </c>
+      <c r="K25" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>148</v>
+      </c>
+      <c r="N25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="21" customHeight="1">
+      <c r="A26">
+        <v>46</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>164</v>
+      </c>
+      <c r="E26" t="s">
+        <v>165</v>
+      </c>
+      <c r="F26" s="49">
+        <v>45456.360013113423</v>
+      </c>
+      <c r="G26" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" t="s">
+        <v>157</v>
+      </c>
+      <c r="I26" t="s">
+        <v>149</v>
+      </c>
+      <c r="J26" t="s">
+        <v>149</v>
+      </c>
+      <c r="K26" t="s">
+        <v>149</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>148</v>
+      </c>
+      <c r="N26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB04962B-325B-4A25-8666-939144C6310C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679CBFA0-2BCB-49C7-BFD3-ECEF5E0EB3C1}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="3" max="3" width="51" customWidth="1"/>
+    <col min="4" max="12" width="14.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="13" customFormat="1">
+      <c r="A1" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="M1" s="29"/>
+    </row>
+    <row r="2" spans="1:13" ht="17.5">
+      <c r="A2" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="17.5">
+      <c r="A3" s="30">
+        <v>1</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="M3" s="35"/>
+    </row>
+    <row r="4" spans="1:13" ht="35">
+      <c r="A4" s="30">
+        <v>2</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" s="35"/>
+    </row>
+    <row r="5" spans="1:13" ht="17.5">
+      <c r="A5" s="30">
+        <v>3</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="M5" s="35"/>
+    </row>
+    <row r="6" spans="1:13" ht="17.5">
+      <c r="A6" s="30">
+        <v>4</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="M6" s="35"/>
+    </row>
+    <row r="7" spans="1:13" ht="17.5">
+      <c r="A7" s="30">
+        <v>5</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="17.5">
+      <c r="A8" s="30">
+        <v>6</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="17.5">
+      <c r="A9" s="30">
+        <v>7</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="35">
+      <c r="A10" s="30">
+        <v>8</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="35"/>
+    </row>
+    <row r="11" spans="1:13" ht="17.5">
+      <c r="A11" s="30">
+        <v>9</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" s="35"/>
+    </row>
+    <row r="12" spans="1:13" ht="17.5">
+      <c r="A12" s="30">
+        <v>10</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="D12" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="E12" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" s="35"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:D11">
-    <sortCondition ref="C2:C11"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C3:M12">
+    <sortCondition ref="D3:D12"/>
   </sortState>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
